--- a/Python/register_Inputbox_ID.xlsx
+++ b/Python/register_Inputbox_ID.xlsx
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>ctl00_holderLeft_txt_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl00_holderLeft_txt_userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl00_holderLeft_txt_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inputbox_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,15 +29,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tip_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_email</t>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName-error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,34 +389,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Python/register_Inputbox_ID.xlsx
+++ b/Python/register_Inputbox_ID.xlsx
@@ -25,31 +25,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tips_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DisplayName-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Email-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password-error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email-error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayName-error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,15 +392,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -408,12 +408,12 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
